--- a/testData/bluenilemaster.xlsx
+++ b/testData/bluenilemaster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_Playwright_GenAI/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/QATaskAutomation/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C496E9-B611-4E92-BE50-2358AD60A42E}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F301037-D5BE-4791-AAF2-F8D3C5B92B1A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>action</t>
   </si>
@@ -68,24 +68,15 @@
     <t>Ships by</t>
   </si>
   <si>
-    <t>wairfortext</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
     <t>We Accept</t>
   </si>
   <si>
-    <t>Please provide an email address</t>
-  </si>
-  <si>
     <t>mellina@gmail.com</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>assert</t>
   </si>
   <si>
@@ -125,17 +116,38 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>elementClick</t>
-  </si>
-  <si>
-    <t>elementinputdata</t>
+    <t>click</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>waitfortext</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Contact information</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -181,6 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,7 +484,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,10 +500,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -493,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -507,10 +526,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -528,10 +547,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -539,6 +558,12 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
@@ -548,19 +573,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
@@ -571,10 +596,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -591,32 +616,46 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1">
         <v>1000</v>
       </c>
@@ -626,56 +665,65 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>1000</v>
       </c>
       <c r="H8" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
@@ -686,22 +734,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>1000</v>
@@ -712,19 +760,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
         <v>1000</v>
@@ -735,33 +783,42 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
         <v>2000</v>
@@ -769,6 +826,10 @@
       <c r="H14" s="1">
         <v>1000</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
@@ -777,7 +838,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{979FC2DF-A930-4714-8BCF-A210590BEE43}"/>
     <hyperlink ref="F11" r:id="rId2" xr:uid="{5A356B78-98B4-49E8-BE22-9B36B0131DAC}"/>
-    <hyperlink ref="F14" r:id="rId3" xr:uid="{7EE9AC3C-2E60-4275-B19A-60AA1393C51C}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{89627F15-B81D-403F-9C5D-F01B21B16237}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/testData/bluenilemaster.xlsx
+++ b/testData/bluenilemaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/QATaskAutomation/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F301037-D5BE-4791-AAF2-F8D3C5B92B1A}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EE1AD6-172D-41EE-805A-F746BB9BB029}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <t>Contact information</t>
   </si>
   <si>
-    <t>no</t>
+    <t>div</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -809,7 +809,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
